--- a/book.xlsx
+++ b/book.xlsx
@@ -148,7 +148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -170,7 +170,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -184,7 +184,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>27.0</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -212,7 +212,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>28.0</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -226,7 +226,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>29.0</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -240,7 +240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -254,7 +254,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.0</v>
+        <v>31.0</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -268,7 +268,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -282,7 +282,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.0</v>
+        <v>33.0</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -296,7 +296,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -310,7 +310,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.0</v>
+        <v>35.0</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -324,7 +324,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
